--- a/biology/Zoologie/Elzéar_Abeille_de_Perrin/Elzéar_Abeille_de_Perrin.xlsx
+++ b/biology/Zoologie/Elzéar_Abeille_de_Perrin/Elzéar_Abeille_de_Perrin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Elz%C3%A9ar_Abeille_de_Perrin</t>
+          <t>Elzéar_Abeille_de_Perrin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elzéar Abeille de Perrin, né Elzéar Emmanuel Arène Abeille de Perrin le 3 janvier 1843 à Marseille (Bouches-du-Rhône) et mort le 9 octobre 1910 dans cette même ville, est un avocat et entomologiste français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elzéar Abeille de Perrin, né Elzéar Emmanuel Arène Abeille de Perrin le 3 janvier 1843 à Marseille (Bouches-du-Rhône) et mort le 9 octobre 1910 dans cette même ville, est un avocat et entomologiste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elz%C3%A9ar_Abeille_de_Perrin</t>
+          <t>Elzéar_Abeille_de_Perrin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elzéar Abeille de Perrin est le fils de Paul-Emmanuel Abeille de Perrin (1797-1868), riche négociant marseillais, passionné d'horticulture et de botanique, et de son épouse, Sidonie Gabrielle Bérard du Pithon (1805-1853), et le neveu et filleul de François-Auguste, comte Abeille (1799-1886), consul général de Monaco à Marseille.
-Après des études de droit, il exerce au barreau de Marseille. En 1864, il adhère à la Société entomologique de France[2] et consacre tout son temps libre à l’étude des insectes. Il est l’un des 43 membres fondateurs de la Société linnéenne de Provence en 1909. Il est président cette année-là[3].
+Après des études de droit, il exerce au barreau de Marseille. En 1864, il adhère à la Société entomologique de France et consacre tout son temps libre à l’étude des insectes. Il est l’un des 43 membres fondateurs de la Société linnéenne de Provence en 1909. Il est président cette année-là.
 Il s'est particulièrement intéressé aux espèces cavernicoles des Pyrénées.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elz%C3%A9ar_Abeille_de_Perrin</t>
+          <t>Elzéar_Abeille_de_Perrin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi ses nombreuses publications :
 Monographie des malachites (1869),
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elz%C3%A9ar_Abeille_de_Perrin</t>
+          <t>Elzéar_Abeille_de_Perrin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plusieurs espèces d'insectes lui sont dédiées, dont :
 Attalus elzeari Uhagón, 1901
@@ -587,7 +605,7 @@
 Cymindis abeillei Jeannel, 1942
 Esarcus abeillei (Ancey, 1870)
 Malacotes abeillei Ribaut, 1932
-Microlestes abeillei (Brisout de Barneville, 1885), espèce de coléoptère découverte à Collioure (Pyrénées-Orientales)[1].
+Microlestes abeillei (Brisout de Barneville, 1885), espèce de coléoptère découverte à Collioure (Pyrénées-Orientales).
 Opilo abeillei Korge, 1960
 Phytocoris abeillei Puton, 1884
 Ripidius abeillei Chobaut, 1891
